--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_36.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2205497.405903052</v>
+        <v>2338487.989812227</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18084029.22468237</v>
+        <v>16612500.99216496</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1513771.156497792</v>
+        <v>278692.0725916865</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5149166.925679656</v>
+        <v>5478382.52296296</v>
       </c>
     </row>
     <row r="11">
@@ -668,10 +670,10 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>389.7219657643569</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -716,13 +718,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>342.6911767584983</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -817,25 +819,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>153.7708772110193</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>67.21017831535856</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +907,10 @@
         <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>23.58875529488432</v>
+        <v>278.8572967832491</v>
       </c>
       <c r="G5" t="n">
-        <v>286.2721000371767</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -947,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400.806900043077</v>
@@ -962,7 +964,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1051,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>145.8557418051477</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
@@ -1069,7 +1071,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
         <v>87.77334973307141</v>
@@ -1105,22 +1107,22 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>215.8510631213643</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,16 +1141,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>343.2919772148563</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>104.7289082592293</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
@@ -1297,16 +1299,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>83.42661545872166</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1342,7 +1344,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>99.28616603324285</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1354,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1427,16 +1429,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>27.34509252913679</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1528,25 +1530,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
-        <v>31.24391673888162</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>141.0670894717352</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1604,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>223.1726595369681</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1625,7 +1627,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1673,7 +1675,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>35.34780583513569</v>
+        <v>63.51633119327946</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1819,7 +1821,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1853,7 +1855,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948854</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
         <v>397.3838530629687</v>
@@ -1907,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864836</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2011,7 +2013,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2047,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2068,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>13.01313443288673</v>
       </c>
     </row>
     <row r="20">
@@ -2147,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633439</v>
       </c>
     </row>
     <row r="21">
@@ -2251,10 +2253,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
@@ -2296,7 +2298,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
-        <v>169.9259850434489</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2482,7 +2484,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2491,10 +2493,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>64.34965323462481</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2532,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
-        <v>56.63677140718762</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
         <v>284.0859530482738</v>
@@ -2542,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2719,19 +2721,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>174.939983497866</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>109.391685766088</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225256</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2968,7 +2970,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3007,10 +3009,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>163.6395778339979</v>
       </c>
       <c r="W31" t="n">
-        <v>61.08641542222794</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3232,19 +3234,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>54.66258501924847</v>
+        <v>193.8659438253727</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3442,7 +3444,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>75.86622810093029</v>
       </c>
       <c r="T37" t="n">
-        <v>101.7706336613758</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3560,7 +3562,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>140.4342819615944</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>405.9713767633128</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884113</v>
       </c>
       <c r="D41" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
@@ -3758,7 +3760,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
         <v>256.6300796561533</v>
@@ -3800,13 +3802,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3910,7 +3912,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>3.139541480023193</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3986,16 +3988,16 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>189.2052394641</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4033,16 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430772</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -4132,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
@@ -4150,7 +4152,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -4183,10 +4185,10 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>173.7040795765157</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4201,7 +4203,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>49.17722654850338</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>812.854954171005</v>
+        <v>844.4212598210011</v>
       </c>
       <c r="C2" t="n">
-        <v>778.7528853948324</v>
+        <v>810.3191910448285</v>
       </c>
       <c r="D2" t="n">
-        <v>746.883504609681</v>
+        <v>778.4498102596771</v>
       </c>
       <c r="E2" t="n">
-        <v>717.1491638083803</v>
+        <v>748.7154694583763</v>
       </c>
       <c r="F2" t="n">
-        <v>323.4906125312521</v>
+        <v>724.8884439079882</v>
       </c>
       <c r="G2" t="n">
         <v>323.4906125312521</v>
@@ -4334,22 +4336,22 @@
         <v>874.0494664914149</v>
       </c>
       <c r="L2" t="n">
-        <v>874.0494664914149</v>
+        <v>1294.102365436318</v>
       </c>
       <c r="M2" t="n">
-        <v>874.0494664914149</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="N2" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4364,16 +4366,16 @@
         <v>1217.893900270473</v>
       </c>
       <c r="V2" t="n">
-        <v>855.2769502042993</v>
+        <v>1217.893900270473</v>
       </c>
       <c r="W2" t="n">
-        <v>854.4618996557366</v>
+        <v>1217.07884972191</v>
       </c>
       <c r="X2" t="n">
-        <v>839.3598402754513</v>
+        <v>870.9261459254474</v>
       </c>
       <c r="Y2" t="n">
-        <v>835.1141206155088</v>
+        <v>866.6804262655048</v>
       </c>
     </row>
     <row r="3">
@@ -4410,7 +4412,7 @@
         <v>33.94366860160834</v>
       </c>
       <c r="K3" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L3" t="n">
         <v>453.9965675465116</v>
@@ -4419,10 +4421,10 @@
         <v>453.9965675465116</v>
       </c>
       <c r="N3" t="n">
-        <v>739.9048540962709</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="O3" t="n">
-        <v>739.9048540962709</v>
+        <v>874.0494664914149</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>546.0000013632873</v>
+        <v>756.2696148467799</v>
       </c>
       <c r="C4" t="n">
-        <v>546.0000013632873</v>
+        <v>583.7079033300048</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>417.8299105315275</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>417.8299105315275</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>122.603617826933</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>91.74450617142992</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>509.954387939391</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>509.954387939391</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="N4" t="n">
-        <v>930.0072868842942</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1697.183430080417</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T4" t="n">
-        <v>1451.303983658873</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1172.870982911978</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="V4" t="n">
-        <v>885.9154747824084</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="W4" t="n">
-        <v>613.8890703687</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="X4" t="n">
-        <v>546.0000013632873</v>
+        <v>983.6892855326716</v>
       </c>
       <c r="Y4" t="n">
-        <v>546.0000013632873</v>
+        <v>756.2696148467799</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>442.640221925911</v>
+        <v>829.2100454836351</v>
       </c>
       <c r="C5" t="n">
-        <v>408.5381531497384</v>
+        <v>795.1079767074625</v>
       </c>
       <c r="D5" t="n">
-        <v>376.668772364587</v>
+        <v>763.2385959223111</v>
       </c>
       <c r="E5" t="n">
-        <v>346.9344315632862</v>
+        <v>733.5042551210104</v>
       </c>
       <c r="F5" t="n">
-        <v>323.107406012898</v>
+        <v>451.8302179662132</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>485.687074042395</v>
       </c>
       <c r="K5" t="n">
-        <v>874.0494664914149</v>
+        <v>485.687074042395</v>
       </c>
       <c r="L5" t="n">
-        <v>1294.102365436318</v>
+        <v>485.687074042395</v>
       </c>
       <c r="M5" t="n">
-        <v>1294.102365436318</v>
+        <v>726.9189754257026</v>
       </c>
       <c r="N5" t="n">
-        <v>1294.102365436318</v>
+        <v>726.9189754257026</v>
       </c>
       <c r="O5" t="n">
-        <v>1294.102365436318</v>
+        <v>1351.019759470482</v>
       </c>
       <c r="P5" t="n">
-        <v>1294.102365436318</v>
+        <v>1975.120543515261</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2301.552102346894</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2042.329799663911</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>1679.712849597737</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.327975491451</v>
+        <v>1274.857395008771</v>
       </c>
       <c r="X5" t="n">
-        <v>873.1855120707613</v>
+        <v>855.7149315880814</v>
       </c>
       <c r="Y5" t="n">
-        <v>464.8993883704147</v>
+        <v>851.4692119281389</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>556.6041315807699</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>450.1476704174122</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>355.0573815639655</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>260.9369668909192</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>177.5531285070808</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>92.16803877326464</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993472</v>
       </c>
       <c r="J6" t="n">
-        <v>60.00734176206595</v>
+        <v>76.49605974993472</v>
       </c>
       <c r="K6" t="n">
-        <v>480.0602407069692</v>
+        <v>76.49605974993472</v>
       </c>
       <c r="L6" t="n">
-        <v>739.9048540962709</v>
+        <v>700.5968437947139</v>
       </c>
       <c r="M6" t="n">
-        <v>739.9048540962709</v>
+        <v>1324.697627839493</v>
       </c>
       <c r="N6" t="n">
-        <v>739.9048540962709</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1596.499369973946</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1713.672148068286</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1650.216710516669</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1520.038066847271</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1343.701519847239</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>959.2612476424324</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>804.3938118813123</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>677.9080326605331</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>807.2216621053868</v>
+        <v>1110.941586529293</v>
       </c>
       <c r="C7" t="n">
-        <v>634.6599505886118</v>
+        <v>938.379875012518</v>
       </c>
       <c r="D7" t="n">
-        <v>634.6599505886118</v>
+        <v>791.0508428861062</v>
       </c>
       <c r="E7" t="n">
-        <v>464.9019468393491</v>
+        <v>621.2928391368434</v>
       </c>
       <c r="F7" t="n">
-        <v>288.1948928011053</v>
+        <v>444.5857850985996</v>
       </c>
       <c r="G7" t="n">
-        <v>122.603617826933</v>
+        <v>278.9945101244273</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>139.0923358148018</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>50.43238658947711</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>137.012071754167</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>411.7705263253026</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>829.9804080932637</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1289.464275274177</v>
       </c>
       <c r="N7" t="n">
-        <v>1292.259348259376</v>
+        <v>1731.723078431821</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2005.919660639182</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2353.426554609523</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2521.619329473855</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2500.201508179227</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>2340.960139477224</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>2340.960139477224</v>
       </c>
       <c r="U7" t="n">
-        <v>1270.644793662241</v>
+        <v>2062.527138730329</v>
       </c>
       <c r="V7" t="n">
-        <v>1270.644793662241</v>
+        <v>1775.57163060076</v>
       </c>
       <c r="W7" t="n">
-        <v>1052.613416771974</v>
+        <v>1775.57163060076</v>
       </c>
       <c r="X7" t="n">
-        <v>807.2216621053868</v>
+        <v>1530.179875934172</v>
       </c>
       <c r="Y7" t="n">
-        <v>807.2216621053868</v>
+        <v>1302.76020524828</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>489.9592645846401</v>
+        <v>1671.54282645597</v>
       </c>
       <c r="C8" t="n">
-        <v>455.8571958084675</v>
+        <v>1637.440757679797</v>
       </c>
       <c r="D8" t="n">
-        <v>423.987815023316</v>
+        <v>1605.571376894645</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>1171.796632052941</v>
       </c>
       <c r="F8" t="n">
-        <v>53.40121652862856</v>
+        <v>743.9292024621484</v>
       </c>
       <c r="G8" t="n">
-        <v>53.40121652862856</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H8" t="n">
         <v>53.40121652862856</v>
@@ -4805,16 +4807,16 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
+        <v>488.6559039815464</v>
+      </c>
+      <c r="L8" t="n">
+        <v>488.6559039815464</v>
+      </c>
+      <c r="M8" t="n">
         <v>1149.495958523325</v>
       </c>
-      <c r="L8" t="n">
-        <v>1293.567921177998</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1293.567921177998</v>
-      </c>
       <c r="N8" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
         <v>1293.567921177998</v>
@@ -4832,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2480.622176595841</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739146</v>
+        <v>2118.005226529668</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.64701815018</v>
+        <v>2117.190175981105</v>
       </c>
       <c r="X8" t="n">
-        <v>1324.544958769894</v>
+        <v>2102.08811660082</v>
       </c>
       <c r="Y8" t="n">
-        <v>916.2588350695479</v>
+        <v>1693.801992900473</v>
       </c>
     </row>
     <row r="9">
@@ -4878,16 +4880,16 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>377.9595414948409</v>
+        <v>397.8892067392439</v>
       </c>
       <c r="K9" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>1038.799596036619</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
         <v>1058.729261281022</v>
@@ -4936,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>403.0375283363603</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>226.3304742981165</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>226.3304742981165</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
         <v>142.0611657539532</v>
@@ -4990,22 +4992,22 @@
         <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2389.112579835562</v>
       </c>
       <c r="U10" t="n">
-        <v>1965.089189266357</v>
+        <v>2110.679579088667</v>
       </c>
       <c r="V10" t="n">
-        <v>1678.133681136788</v>
+        <v>1823.724070959097</v>
       </c>
       <c r="W10" t="n">
-        <v>1406.107276723079</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="X10" t="n">
-        <v>1160.715522056492</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>933.2958513705998</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2496.914747933601</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C11" t="n">
-        <v>2058.772275117024</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D11" t="n">
-        <v>1622.862490291469</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E11" t="n">
-        <v>1189.087745449764</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F11" t="n">
-        <v>761.2203158589718</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G11" t="n">
-        <v>359.8224844822358</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H11" t="n">
-        <v>70.69232992545206</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J11" t="n">
-        <v>70.27554055259206</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K11" t="n">
-        <v>70.27554055259206</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L11" t="n">
-        <v>70.27554055259206</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M11" t="n">
-        <v>939.9353548909187</v>
+        <v>1463.168637987181</v>
       </c>
       <c r="N11" t="n">
-        <v>1269.308552499285</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O11" t="n">
-        <v>2138.968366837612</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P11" t="n">
-        <v>2967.278241671008</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q11" t="n">
-        <v>3513.777027629603</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R11" t="n">
-        <v>3513.777027629603</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S11" t="n">
-        <v>3430.12515381344</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T11" t="n">
-        <v>3210.057926686478</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U11" t="n">
-        <v>2950.835624003495</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V11" t="n">
-        <v>2950.835624003495</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W11" t="n">
-        <v>2923.214318418509</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X11" t="n">
-        <v>2923.214318418509</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y11" t="n">
-        <v>2923.214318418509</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C12" t="n">
-        <v>469.9908243805272</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D12" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E12" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F12" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H12" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I12" t="n">
-        <v>70.27554055259206</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J12" t="n">
-        <v>394.8338655188044</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1075.567385589182</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L12" t="n">
-        <v>1075.567385589182</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M12" t="n">
-        <v>1075.567385589182</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.567385589182</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O12" t="n">
-        <v>1075.567385589182</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P12" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q12" t="n">
-        <v>1616.342523937061</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R12" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S12" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T12" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U12" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V12" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W12" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X12" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y12" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>779.7693779702045</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C13" t="n">
-        <v>748.2098661127483</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D13" t="n">
-        <v>582.331873314271</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E13" t="n">
-        <v>412.5738695650082</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="F13" t="n">
-        <v>235.8668155267644</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="G13" t="n">
-        <v>70.27554055259206</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H13" t="n">
-        <v>70.27554055259206</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I13" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J13" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K13" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L13" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M13" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N13" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O13" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P13" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q13" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R13" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S13" t="n">
-        <v>2527.693781753389</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T13" t="n">
-        <v>2281.814335331844</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U13" t="n">
-        <v>2003.381334584949</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V13" t="n">
-        <v>1716.425826455379</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W13" t="n">
-        <v>1444.399422041671</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X13" t="n">
-        <v>1199.007667375083</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y13" t="n">
-        <v>971.5879966891916</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1847.872629743829</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C14" t="n">
-        <v>1847.872629743829</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D14" t="n">
-        <v>1622.445700918609</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E14" t="n">
-        <v>1188.670956076904</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F14" t="n">
-        <v>760.8035264861119</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>359.4056951093758</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H14" t="n">
-        <v>70.27554055259206</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J14" t="n">
-        <v>505.53022800551</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K14" t="n">
-        <v>505.53022800551</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L14" t="n">
-        <v>505.53022800551</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M14" t="n">
-        <v>505.53022800551</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N14" t="n">
-        <v>1100.154487746229</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O14" t="n">
-        <v>1969.814302084555</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P14" t="n">
-        <v>2798.124176917951</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q14" t="n">
-        <v>3344.622962876546</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R14" t="n">
-        <v>3513.777027629603</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S14" t="n">
-        <v>3513.777027629603</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T14" t="n">
-        <v>3293.709800502641</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U14" t="n">
-        <v>3034.487497819659</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V14" t="n">
-        <v>2671.870547753485</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W14" t="n">
-        <v>2267.015093164518</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X14" t="n">
-        <v>1847.872629743829</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y14" t="n">
-        <v>1847.872629743829</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>469.9908243805272</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D15" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E15" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F15" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H15" t="n">
-        <v>70.27554055259206</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>96.33921371304966</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>420.897538679262</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q15" t="n">
-        <v>1616.342523937061</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R15" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S15" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T15" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U15" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V15" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W15" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X15" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y15" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>779.7693779702045</v>
+        <v>3462.891420506061</v>
       </c>
       <c r="C16" t="n">
-        <v>607.2076664534294</v>
+        <v>3290.329708989286</v>
       </c>
       <c r="D16" t="n">
-        <v>441.3296736549521</v>
+        <v>3124.451716190809</v>
       </c>
       <c r="E16" t="n">
-        <v>271.5716699056894</v>
+        <v>2954.693712441546</v>
       </c>
       <c r="F16" t="n">
-        <v>235.8668155267644</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G16" t="n">
-        <v>70.27554055259206</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H16" t="n">
-        <v>70.27554055259206</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I16" t="n">
-        <v>70.27554055259206</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J16" t="n">
-        <v>156.8552257172819</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K16" t="n">
-        <v>431.6136802884175</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L16" t="n">
-        <v>849.8235620563786</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M16" t="n">
-        <v>1309.307429237292</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N16" t="n">
-        <v>1751.566232394936</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O16" t="n">
-        <v>2171.235481620718</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P16" t="n">
-        <v>2518.742375591059</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q16" t="n">
-        <v>2686.935150455392</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R16" t="n">
-        <v>2686.935150455392</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S16" t="n">
-        <v>2527.693781753389</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T16" t="n">
-        <v>2281.814335331844</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U16" t="n">
-        <v>2003.381334584949</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="V16" t="n">
-        <v>1716.425826455379</v>
+        <v>4399.547868991236</v>
       </c>
       <c r="W16" t="n">
-        <v>1444.399422041671</v>
+        <v>4127.521464577528</v>
       </c>
       <c r="X16" t="n">
-        <v>1199.007667375083</v>
+        <v>3882.12970991094</v>
       </c>
       <c r="Y16" t="n">
-        <v>971.5879966891916</v>
+        <v>3654.710039225049</v>
       </c>
     </row>
     <row r="17">
@@ -5489,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
         <v>793.2056155771595</v>
@@ -5519,22 +5521,22 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>1463.168637987181</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>2460.632577573633</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3586.36356101008</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4566.543227580387</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5555,10 +5557,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J18" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L18" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M18" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="N18" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="O18" t="n">
-        <v>1107.588885023173</v>
+        <v>945.7774352703902</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>3398.73351020982</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>3226.171798693044</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>3060.293805894567</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>2890.535802145304</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>2724.944527171132</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>2585.042352861507</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>5091.624192244353</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>4932.38282354235</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>4686.503377120805</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>4408.070376373911</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>4121.114868244342</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>3849.088463830633</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>3603.696709164046</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>3590.552128928807</v>
       </c>
     </row>
     <row r="20">
@@ -5738,64 +5740,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2114.610344180331</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>3271.658179390882</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N20" t="n">
-        <v>4397.38916282733</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O20" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5832,25 +5834,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K21" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L21" t="n">
-        <v>405.0384966383147</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M21" t="n">
-        <v>405.0384966383147</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N21" t="n">
-        <v>405.0384966383147</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O21" t="n">
-        <v>405.0384966383147</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.761663117513</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q21" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
         <v>1765.500601749588</v>
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>927.0677766831641</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C22" t="n">
-        <v>754.506065166389</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D22" t="n">
-        <v>588.6280723679117</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E22" t="n">
-        <v>418.8700686186489</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F22" t="n">
-        <v>242.1630145804051</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5932,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V22" t="n">
-        <v>1863.724225168339</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W22" t="n">
-        <v>1591.697820754631</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X22" t="n">
-        <v>1346.306066088043</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y22" t="n">
-        <v>1118.886395402151</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="23">
@@ -5987,22 +5989,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M23" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N23" t="n">
-        <v>3304.552472135278</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O23" t="n">
-        <v>4284.732138705584</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P23" t="n">
         <v>5113.04201353898</v>
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M24" t="n">
-        <v>452.8828383974496</v>
+        <v>1300.985674363279</v>
       </c>
       <c r="N24" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O24" t="n">
-        <v>452.8828383974496</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3405.682560498801</v>
+        <v>1017.756527079655</v>
       </c>
       <c r="C25" t="n">
-        <v>3233.120848982026</v>
+        <v>845.1948155628801</v>
       </c>
       <c r="D25" t="n">
-        <v>3067.242856183548</v>
+        <v>679.3168227644028</v>
       </c>
       <c r="E25" t="n">
-        <v>3067.242856183548</v>
+        <v>509.55881901514</v>
       </c>
       <c r="F25" t="n">
-        <v>2890.535802145304</v>
+        <v>332.8517649768962</v>
       </c>
       <c r="G25" t="n">
-        <v>2724.944527171132</v>
+        <v>167.2604900027239</v>
       </c>
       <c r="H25" t="n">
-        <v>2585.042352861507</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J25" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K25" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L25" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M25" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N25" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O25" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P25" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q25" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>4686.503377120805</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>4629.294517113545</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>4342.339008983976</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>4070.312604570267</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>3824.920849903679</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>3597.501179217788</v>
+        <v>1209.575145798642</v>
       </c>
     </row>
     <row r="26">
@@ -6227,25 +6229,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>936.6111322289576</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M26" t="n">
-        <v>2093.658967439508</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N26" t="n">
-        <v>3219.389950875955</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O26" t="n">
-        <v>4199.569617446262</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6306,19 +6308,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>782.9943603411569</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L27" t="n">
-        <v>1737.537409152261</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="M27" t="n">
-        <v>1737.537409152261</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.537409152261</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>1737.537409152261</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>982.1554751127505</v>
+        <v>952.7568773477155</v>
       </c>
       <c r="C28" t="n">
-        <v>809.5937635959755</v>
+        <v>780.1951658309405</v>
       </c>
       <c r="D28" t="n">
-        <v>643.7157707974982</v>
+        <v>614.3171730324632</v>
       </c>
       <c r="E28" t="n">
-        <v>643.7157707974982</v>
+        <v>444.5591692832005</v>
       </c>
       <c r="F28" t="n">
-        <v>467.0087167592544</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>301.4174417850821</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6408,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.6812811309</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.801834709355</v>
       </c>
       <c r="U28" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.36883396246</v>
       </c>
       <c r="V28" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.41332583289</v>
       </c>
       <c r="W28" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419182</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.995166752595</v>
       </c>
       <c r="Y28" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066703</v>
       </c>
     </row>
     <row r="29">
@@ -6461,22 +6463,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>2001.953320058587</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>3159.001155269137</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>4284.732138705584</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>4284.732138705584</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
         <v>5113.04201353898</v>
@@ -6549,7 +6551,7 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M30" t="n">
-        <v>751.6989919312866</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="N30" t="n">
         <v>751.6989919312866</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1181.319000882661</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C31" t="n">
-        <v>1008.757289365886</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D31" t="n">
-        <v>842.8792965674086</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E31" t="n">
-        <v>673.1212928181459</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6628,43 +6630,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955475</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309242</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173575</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.041003752034</v>
+        <v>2473.04100375203</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005139</v>
+        <v>2194.608003005135</v>
       </c>
       <c r="V31" t="n">
-        <v>1907.65249487557</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W31" t="n">
-        <v>1845.949044954127</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X31" t="n">
-        <v>1600.55729028754</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y31" t="n">
-        <v>1373.137619601648</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="32">
@@ -6786,10 +6788,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="M33" t="n">
-        <v>751.6989919312866</v>
+        <v>531.6733301892817</v>
       </c>
       <c r="N33" t="n">
-        <v>751.6989919312866</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O33" t="n">
         <v>1765.500601749588</v>
@@ -6880,16 +6882,16 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2697.502628878951</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2451.623182457406</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2173.190181710511</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="V34" t="n">
         <v>2117.975449367836</v>
@@ -6935,25 +6937,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P35" t="n">
-        <v>4397.38916282733</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="Q35" t="n">
         <v>4943.887948785924</v>
@@ -6974,7 +6976,7 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
         <v>3363.485741837043</v>
@@ -7011,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>414.500552094942</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2697.502628878951</v>
+        <v>2642.287896536276</v>
       </c>
       <c r="T37" t="n">
-        <v>2594.704009018975</v>
+        <v>2396.408450114731</v>
       </c>
       <c r="U37" t="n">
-        <v>2316.271008272081</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="V37" t="n">
-        <v>2029.315500142511</v>
+        <v>2117.975449367836</v>
       </c>
       <c r="W37" t="n">
-        <v>1757.289095728803</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X37" t="n">
-        <v>1511.897341062215</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y37" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7160,10 +7162,10 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
@@ -7172,52 +7174,52 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722816</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595855</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912872</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V38" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>782.9943603411569</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L39" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M39" t="n">
-        <v>1107.588885023173</v>
+        <v>1651.607672489949</v>
       </c>
       <c r="N39" t="n">
-        <v>1107.588885023173</v>
+        <v>1651.607672489949</v>
       </c>
       <c r="O39" t="n">
-        <v>1107.588885023173</v>
+        <v>1651.607672489949</v>
       </c>
       <c r="P39" t="n">
-        <v>1107.588885023173</v>
+        <v>1651.607672489949</v>
       </c>
       <c r="Q39" t="n">
-        <v>1648.327823655249</v>
+        <v>1651.607672489949</v>
       </c>
       <c r="R39" t="n">
         <v>1765.500601749588</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>3346.878440713112</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>3174.316729196337</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>3008.43873639786</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>2838.680732648597</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>2661.973678610354</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057297</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636181</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800871</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372006</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139967</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.41429232088</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478524</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704307</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674648</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R40" t="n">
-        <v>2697.502628878951</v>
+        <v>5094.802844496296</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176947</v>
+        <v>5094.802844496296</v>
       </c>
       <c r="T40" t="n">
-        <v>2396.408450114731</v>
+        <v>4848.923398074751</v>
       </c>
       <c r="U40" t="n">
-        <v>2117.975449367836</v>
+        <v>4570.490397327857</v>
       </c>
       <c r="V40" t="n">
-        <v>2117.975449367836</v>
+        <v>4283.534889198288</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>4011.508484784579</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>3766.116730117991</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>3538.6970594321</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2062.723213719036</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>1624.58074090246</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D41" t="n">
-        <v>1188.670956076904</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E41" t="n">
-        <v>1188.670956076904</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>760.8035264861119</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G41" t="n">
-        <v>359.4056951093758</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H41" t="n">
-        <v>70.27554055259203</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I41" t="n">
-        <v>70.27554055259203</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>70.27554055259203</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>70.27554055259203</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>230.4946734079012</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>1100.154487746228</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="N41" t="n">
-        <v>1100.154487746228</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="O41" t="n">
-        <v>1969.814302084554</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P41" t="n">
-        <v>2798.124176917951</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>3344.622962876545</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R41" t="n">
-        <v>3513.777027629602</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S41" t="n">
-        <v>3513.777027629602</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T41" t="n">
-        <v>3513.777027629602</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U41" t="n">
-        <v>3254.554724946619</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V41" t="n">
-        <v>2891.937774880445</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>2891.937774880445</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>2472.795311459756</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2472.795311459756</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C42" t="n">
-        <v>469.9908243805271</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D42" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E42" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F42" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H42" t="n">
-        <v>70.27554055259203</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I42" t="n">
-        <v>96.33921371304963</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J42" t="n">
-        <v>420.897538679262</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K42" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L42" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M42" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O42" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P42" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q42" t="n">
-        <v>1616.342523937061</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S42" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T42" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V42" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W42" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y42" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>758.3515566755764</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>585.7898451588013</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D43" t="n">
-        <v>419.911852360324</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E43" t="n">
-        <v>250.1538486110613</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F43" t="n">
-        <v>73.44679457281748</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>70.27554055259203</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
-        <v>70.27554055259203</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I43" t="n">
-        <v>70.27554055259203</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J43" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L43" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M43" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O43" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q43" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2665.517329160764</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2506.27596045876</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T43" t="n">
-        <v>2260.396514037216</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U43" t="n">
-        <v>1981.963513290321</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V43" t="n">
-        <v>1695.008005160751</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W43" t="n">
-        <v>1422.981600747043</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X43" t="n">
-        <v>1177.589846080455</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>950.1701753945636</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1970.616777912256</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C44" t="n">
-        <v>1532.474305095679</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1096.564520270124</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>662.789775428419</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>662.789775428419</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G44" t="n">
-        <v>261.3919440516829</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H44" t="n">
-        <v>70.27554055259203</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I44" t="n">
-        <v>70.27554055259203</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>70.27554055259203</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>904.62583251077</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1100.154487746228</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M44" t="n">
-        <v>1100.154487746228</v>
+        <v>2528.913654892426</v>
       </c>
       <c r="N44" t="n">
-        <v>1969.814302084554</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O44" t="n">
-        <v>1969.814302084554</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P44" t="n">
-        <v>2798.124176917951</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q44" t="n">
-        <v>3344.622962876545</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R44" t="n">
-        <v>3513.777027629602</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S44" t="n">
-        <v>3430.125153813439</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T44" t="n">
-        <v>3210.057926686477</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U44" t="n">
-        <v>3210.057926686477</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V44" t="n">
-        <v>3210.057926686477</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W44" t="n">
-        <v>2805.202472097511</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X44" t="n">
-        <v>2805.202472097511</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y44" t="n">
-        <v>2396.916348397164</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>576.4472855438848</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C45" t="n">
-        <v>469.9908243805271</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D45" t="n">
-        <v>374.9005355270804</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E45" t="n">
-        <v>280.7801208540341</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F45" t="n">
-        <v>197.3962824701957</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>112.0111927363796</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H45" t="n">
-        <v>70.27554055259203</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I45" t="n">
-        <v>96.33921371304963</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J45" t="n">
-        <v>255.8804188257874</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K45" t="n">
-        <v>255.8804188257874</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L45" t="n">
-        <v>255.8804188257874</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M45" t="n">
-        <v>255.8804188257874</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N45" t="n">
-        <v>255.8804188257874</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O45" t="n">
-        <v>255.8804188257874</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P45" t="n">
-        <v>1075.603585304986</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q45" t="n">
-        <v>1616.342523937061</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1733.515302031401</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S45" t="n">
-        <v>1670.059864479784</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T45" t="n">
-        <v>1539.881220810386</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1363.544673810354</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V45" t="n">
-        <v>1164.427155872353</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W45" t="n">
-        <v>979.1044016055473</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>824.2369658444272</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y45" t="n">
-        <v>697.751186623648</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1009.431526854848</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>836.869815338073</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>670.9918225395957</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>501.2338187903329</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>324.526764752089</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>158.9354897779167</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H46" t="n">
-        <v>158.9354897779167</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
-        <v>70.27554055259203</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J46" t="n">
-        <v>156.8552257172819</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K46" t="n">
-        <v>431.6136802884175</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L46" t="n">
-        <v>849.8235620563786</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M46" t="n">
-        <v>1309.307429237292</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1751.566232394936</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2171.235481620718</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2518.742375591059</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2686.935150455392</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2686.935150455392</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T46" t="n">
-        <v>2511.476484216487</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U46" t="n">
-        <v>2233.043483469593</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1946.087975340023</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1674.061570926315</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X46" t="n">
-        <v>1428.669816259727</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1201.250145573835</v>
+        <v>1181.319000882661</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7984,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -7997,10 +7999,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,22 +8060,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>288.796249040161</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8134,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>58.3846844139612</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>243.6685872558663</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,25 +8297,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>262.4693064538401</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>274.5472142772255</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>276.9662446538994</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,19 +8455,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>667.515206607857</v>
@@ -8538,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8687,22 +8689,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>878.4442569074007</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>332.7001996044108</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>878.4442569074008</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8713,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8765,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8784,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8924,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N14" t="n">
-        <v>600.6305653946653</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>878.4442569074006</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9167,10 +9169,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>13.84524407969548</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -9179,13 +9181,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9258,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,13 +9400,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>750.2469944428849</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9413,13 +9415,13 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>655.9980117748592</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9480,28 +9482,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>315.3936483072347</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9635,25 +9637,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>866.2895820207509</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -9711,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9723,22 +9725,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9875,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>751.8366983228907</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,22 +9956,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>28.2456490882098</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10109,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4520205825365</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -10124,10 +10126,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10197,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>655.9981329904112</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>1024.042030119497</v>
@@ -10434,13 +10436,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>655.9981329904112</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -10583,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10671,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166689</v>
+        <v>289.066705720914</v>
       </c>
       <c r="N36" t="n">
         <v>1246.290173293239</v>
@@ -10686,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,19 +10898,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>327.8732572545618</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10920,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>115.0433628885244</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11057,22 +11059,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>161.8375079346558</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>878.4442569074005</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>878.4442569074006</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11294,22 +11296,22 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>197.5036921570279</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>878.4442569074006</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11373,10 +11375,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>161.1527324371089</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11391,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -23315,16 +23317,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>373.4618075139402</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>139.5921776627257</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>22.86827275269542</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23492,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>208.3780274403318</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23561,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>139.5921776627256</v>
+        <v>111.4236523045819</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23935,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23956,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>212.1323395461461</v>
       </c>
     </row>
     <row r="20">
@@ -24139,10 +24141,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24184,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>114.1599680048249</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>74.15349933190441</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>219.0118993322381</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>29.11146680044124</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>139.5921776627307</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24895,10 +24897,10 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>120.4463752142759</v>
       </c>
       <c r="W31" t="n">
-        <v>208.2197249473434</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25120,19 +25122,19 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>229.4233680290254</v>
+        <v>90.22000922290115</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>81.78272691405301</v>
       </c>
       <c r="T37" t="n">
-        <v>141.6500182959535</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>3.14686572942388</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
-        <v>102.9863699957349</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25625,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>16.06519801674591</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25634,7 +25636,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25646,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,13 +25690,13 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25798,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>160.7958207444074</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
@@ -25831,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25874,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>97.03361354711592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26020,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26071,10 +26073,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>69.71657238081363</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>175.9682474305294</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>467989.5150975496</v>
+        <v>472216.955905308</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363424.1897835032</v>
+        <v>474706.6928761695</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363424.1897835031</v>
+        <v>474706.6928761696</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>474706.6928761696</v>
+        <v>474706.6928761695</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>474706.6928761696</v>
+        <v>474706.6928761695</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>474706.6928761695</v>
+        <v>474706.6928761694</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>363424.1897835031</v>
+        <v>474706.6928761695</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>363424.1897835031</v>
+        <v>474706.6928761695</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>482532.5879013677</v>
       </c>
       <c r="E2" t="n">
-        <v>363014.7081720677</v>
+        <v>474171.825723617</v>
       </c>
       <c r="F2" t="n">
-        <v>363014.7081720677</v>
+        <v>474171.825723617</v>
       </c>
       <c r="G2" t="n">
-        <v>474171.8257236172</v>
+        <v>474171.825723617</v>
       </c>
       <c r="H2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.825723617</v>
       </c>
       <c r="I2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="J2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236169</v>
       </c>
       <c r="K2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="L2" t="n">
+        <v>474171.8257236171</v>
+      </c>
+      <c r="M2" t="n">
+        <v>474171.8257236171</v>
+      </c>
+      <c r="N2" t="n">
         <v>474171.825723617</v>
       </c>
-      <c r="M2" t="n">
-        <v>474171.825723617</v>
-      </c>
-      <c r="N2" t="n">
-        <v>474171.8257236169</v>
-      </c>
       <c r="O2" t="n">
-        <v>363014.7081720675</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="P2" t="n">
-        <v>363014.7081720674</v>
+        <v>474171.8257236171</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>66587.76789501628</v>
       </c>
       <c r="D3" t="n">
-        <v>75551.22640712859</v>
+        <v>11527.59554998266</v>
       </c>
       <c r="E3" t="n">
-        <v>62978.77398033718</v>
+        <v>182355.1092210498</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109583.635915743</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26390,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>53045.8546387726</v>
       </c>
       <c r="L3" t="n">
-        <v>61556.6282799684</v>
+        <v>9392.301726622227</v>
       </c>
       <c r="M3" t="n">
-        <v>52564.36305084745</v>
+        <v>152200.1709379876</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,31 +26420,31 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>181432.3864604621</v>
+        <v>138489.2977955546</v>
       </c>
       <c r="D4" t="n">
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>21194.27436073585</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="F4" t="n">
-        <v>21194.27436073584</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="G4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020263</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020265</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="J4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020261</v>
       </c>
       <c r="K4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020261</v>
       </c>
       <c r="L4" t="n">
         <v>27684.07875020268</v>
@@ -26454,10 +26456,10 @@
         <v>27684.07875020268</v>
       </c>
       <c r="O4" t="n">
-        <v>21194.27436073584</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="P4" t="n">
-        <v>21194.27436073584</v>
+        <v>27684.07875020268</v>
       </c>
     </row>
     <row r="5">
@@ -26470,16 +26472,16 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>71956.21380800259</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>53409.41081996996</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="F5" t="n">
-        <v>53409.41081996996</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26506,10 +26508,10 @@
         <v>77718.2386057925</v>
       </c>
       <c r="O5" t="n">
-        <v>53409.41081996995</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
-        <v>53409.41081996995</v>
+        <v>77718.2386057925</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99484.11264397326</v>
+        <v>99484.11264397329</v>
       </c>
       <c r="C6" t="n">
-        <v>241675.4133036832</v>
+        <v>205499.3084027942</v>
       </c>
       <c r="D6" t="n">
-        <v>202011.5367004615</v>
+        <v>266035.1675576075</v>
       </c>
       <c r="E6" t="n">
-        <v>225432.2490110247</v>
+        <v>186414.3991465721</v>
       </c>
       <c r="F6" t="n">
-        <v>288411.0229913619</v>
+        <v>368769.5083676219</v>
       </c>
       <c r="G6" t="n">
-        <v>259185.872451879</v>
+        <v>368769.5083676219</v>
       </c>
       <c r="H6" t="n">
         <v>368769.5083676219</v>
       </c>
       <c r="I6" t="n">
-        <v>368769.5083676218</v>
+        <v>368769.5083676219</v>
       </c>
       <c r="J6" t="n">
         <v>257755.0430226316</v>
       </c>
       <c r="K6" t="n">
+        <v>315723.6537288493</v>
+      </c>
+      <c r="L6" t="n">
+        <v>359377.2066409997</v>
+      </c>
+      <c r="M6" t="n">
+        <v>216569.3374296343</v>
+      </c>
+      <c r="N6" t="n">
+        <v>368769.5083676218</v>
+      </c>
+      <c r="O6" t="n">
         <v>368769.5083676219</v>
       </c>
-      <c r="L6" t="n">
-        <v>307212.8800876535</v>
-      </c>
-      <c r="M6" t="n">
-        <v>316205.1453167744</v>
-      </c>
-      <c r="N6" t="n">
-        <v>368769.5083676217</v>
-      </c>
-      <c r="O6" t="n">
-        <v>288411.0229913617</v>
-      </c>
       <c r="P6" t="n">
-        <v>288411.0229913616</v>
+        <v>368769.5083676219</v>
       </c>
     </row>
   </sheetData>
@@ -26790,16 +26792,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>878.4442569074007</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="F4" t="n">
-        <v>878.4442569074007</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>878.4442569074005</v>
+        <v>1278.260503384745</v>
       </c>
       <c r="P4" t="n">
-        <v>878.4442569074005</v>
+        <v>1278.260503384745</v>
       </c>
     </row>
   </sheetData>
@@ -27012,19 +27014,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="D4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939305</v>
       </c>
       <c r="E4" t="n">
-        <v>210.9290502995437</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>399.8162464773446</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27036,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="L4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939305</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9290502995435</v>
+        <v>610.7452967768882</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27258,19 +27260,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>206.1089748483596</v>
       </c>
       <c r="L4" t="n">
-        <v>243.2193490877526</v>
+        <v>37.11037423939305</v>
       </c>
       <c r="M4" t="n">
-        <v>210.9290502995437</v>
+        <v>610.7452967768884</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>399.8162464773446</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27388,10 +27390,10 @@
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>33.8667895305274</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27436,13 +27438,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>72.25986202798413</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27537,25 +27539,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>21.16910628684204</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>175.7276588045631</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,10 +27627,10 @@
         <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>144.7314585116352</v>
       </c>
       <c r="G5" t="n">
-        <v>111.111753025792</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
@@ -27667,13 +27669,13 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6">
@@ -27771,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>18.36347106534487</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27789,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,22 +27827,22 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>53.45507724820709</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,16 +27861,16 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>86.14502017843148</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27904,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>151.901171396924</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
@@ -28017,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>55.07653710780757</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28062,7 +28064,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>144.1344859240864</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34702,13 +34704,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>407.1525905495951</v>
       </c>
       <c r="N2" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34717,10 +34719,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="P3" t="n">
-        <v>424.2958575201044</v>
+        <v>288.796249040161</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>58.3846844139612</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>243.6685872558663</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="Q5" t="n">
-        <v>236.2898988798406</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,28 +35017,28 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>262.4693064538401</v>
+        <v>630.4048323684639</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>630.4048323684638</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>274.5472142772255</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094341</v>
+        <v>118.3563415094343</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>409.0142240616578</v>
+        <v>276.9662446538994</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35175,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>667.515206607857</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>145.5272350047205</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>667.515206607857</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>327.836691885063</v>
+        <v>321.6407242930886</v>
       </c>
       <c r="K9" t="n">
         <v>667.515206607857</v>
@@ -35258,7 +35260,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>20.13097499434639</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35407,22 +35409,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>878.4442569074007</v>
+        <v>92.22506899525797</v>
       </c>
       <c r="N11" t="n">
-        <v>332.7001996044108</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>878.4442569074008</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35433,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35504,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0.03656536949893052</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>583.0591140826373</v>
       </c>
       <c r="N14" t="n">
-        <v>600.6305653946653</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>878.4442569074006</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35817,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,10 +35889,10 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>92.22506899525797</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>13.84524407969548</v>
       </c>
       <c r="N17" t="n">
         <v>1137.102003471159</v>
@@ -35899,13 +35901,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>852.0369646460714</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35978,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>750.2469944428849</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>655.9980117748592</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36200,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>305.8360165328637</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>315.3936483072347</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36355,25 +36357,25 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>866.2895820207509</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -36431,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36443,22 +36445,22 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36515,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K25" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645586</v>
@@ -36528,13 +36530,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q25" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,10 +36597,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36607,16 +36609,16 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>751.8366983228907</v>
+        <v>679.5583048465032</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>28.2456490882098</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36829,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
-        <v>636.4520205825365</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
         <v>1168.735187081365</v>
@@ -36844,10 +36846,10 @@
         <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36917,10 +36919,10 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
         <v>655.9981329904112</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>1024.042030119497</v>
@@ -36996,7 +36998,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645541</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37154,13 +37156,13 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>655.9981329904112</v>
+        <v>433.7499898166688</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1246.290173293239</v>
       </c>
       <c r="O33" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>508.6956131767483</v>
       </c>
       <c r="Q35" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37379,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166689</v>
+        <v>289.066705720914</v>
       </c>
       <c r="N36" t="n">
         <v>1246.290173293239</v>
@@ -37406,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>327.8732572545618</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1210.83316575</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37640,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>118.3563415094341</v>
+        <v>115.0433628885244</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
-        <v>161.8375079346558</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>878.4442569074005</v>
+        <v>1133.488385918382</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>878.4442569074006</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
         <v>327.836691885063</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
-        <v>197.5036921570279</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>878.4442569074006</v>
+        <v>60.59188538505123</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>836.6766412458549</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>161.1527324371089</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38111,7 +38113,7 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_2_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2338487.989812227</v>
+        <v>2337962.807443195</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>278692.0725916865</v>
+        <v>278692.0725916866</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>24.34678490904431</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
@@ -673,13 +673,13 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>342.6911767584983</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>153.7708772110193</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,22 +867,22 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>46.22746135858853</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -895,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>322.517004654122</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>278.8572967832491</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
         <v>397.3838530629687</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>4.203262463343094</v>
@@ -1059,22 +1059,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>145.8557418051477</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>34.06158462963658</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
         <v>275.6486707394257</v>
@@ -1116,7 +1116,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1141,16 +1141,16 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1186,19 +1186,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>104.7289082592293</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>99.28616603324285</v>
+        <v>35.20092700998597</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1356,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1372,7 +1372,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
@@ -1423,7 +1423,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556936</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1435,7 +1435,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1536,19 +1536,19 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>141.0670894717352</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225976</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1609,10 +1609,10 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
@@ -1624,7 +1624,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1660,7 +1660,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556926</v>
+        <v>217.8665548556936</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1776,10 +1776,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>63.51633119327946</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244282</v>
       </c>
       <c r="H16" t="n">
         <v>138.5031525665292</v>
@@ -1821,10 +1821,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>122.1591039833004</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T17" t="n">
         <v>217.8665548556918</v>
@@ -1909,7 +1909,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2013,7 +2013,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
         <v>163.9353622244306</v>
@@ -2022,7 +2022,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>5.990622819018381</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>157.6489550149833</v>
@@ -2061,7 +2061,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>13.01313443288673</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
@@ -2149,7 +2149,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633439</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2253,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2493,7 +2493,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>64.34965323462481</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -2724,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.939983497866</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>18.05677735225256</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
@@ -2967,7 +2967,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3009,7 +3009,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V31" t="n">
-        <v>163.6395778339979</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
         <v>269.3061403695714</v>
@@ -3204,10 +3204,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>193.8659438253727</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G35" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I35" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791315016</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800146</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556919</v>
       </c>
       <c r="U35" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="36">
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F37" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665293</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>50.05924486566176</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>75.86622810093029</v>
+        <v>157.6489550149834</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X37" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
     <row r="38">
@@ -3502,28 +3502,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G38" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H38" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I38" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791334068</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800146</v>
       </c>
       <c r="T38" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556919</v>
       </c>
       <c r="U38" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V38" t="n">
         <v>358.9907805655118</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y38" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="39">
@@ -3660,22 +3660,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C40" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G40" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244307</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.05677735225796</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>18.05677735225571</v>
       </c>
       <c r="T40" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W40" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y40" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
     <row r="41">
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884113</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791315016</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3796,19 +3796,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561553</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>170.8360944016074</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244307</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665293</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168194</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149834</v>
       </c>
       <c r="T43" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V43" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W43" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>118.5788473068449</v>
       </c>
       <c r="Y43" t="n">
-        <v>225.1454739790328</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
     <row r="44">
@@ -3976,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884126</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791315016</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800146</v>
       </c>
       <c r="T44" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556919</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.8069000430772</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
         <v>414.9510387864824</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>189.9004325317973</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>67.68074767021182</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>168.0604237117702</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>163.9353622244307</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665293</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,25 +4185,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>157.6489550149834</v>
       </c>
       <c r="T46" t="n">
-        <v>243.4206519573293</v>
+        <v>243.4206519573294</v>
       </c>
       <c r="U46" t="n">
-        <v>275.6486707394257</v>
+        <v>275.6486707394258</v>
       </c>
       <c r="V46" t="n">
-        <v>284.0859530482738</v>
+        <v>284.085953048274</v>
       </c>
       <c r="W46" t="n">
-        <v>269.3061403695714</v>
+        <v>269.3061403695715</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>242.9378371199218</v>
       </c>
       <c r="Y46" t="n">
-        <v>49.17722654850338</v>
+        <v>225.1454739790329</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>844.4212598210011</v>
+        <v>944.6683834787607</v>
       </c>
       <c r="C2" t="n">
-        <v>810.3191910448285</v>
+        <v>516.086709216029</v>
       </c>
       <c r="D2" t="n">
-        <v>778.4498102596771</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>748.7154694583763</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>724.8884439079882</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K2" t="n">
-        <v>874.0494664914149</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L2" t="n">
-        <v>1294.102365436318</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="M2" t="n">
-        <v>1697.183430080417</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="N2" t="n">
-        <v>1697.183430080417</v>
+        <v>267.8706684926505</v>
       </c>
       <c r="O2" t="n">
-        <v>1697.183430080417</v>
+        <v>687.9235674375537</v>
       </c>
       <c r="P2" t="n">
-        <v>1697.183430080417</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1477.116202953456</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="U2" t="n">
-        <v>1217.893900270473</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="V2" t="n">
-        <v>1217.893900270473</v>
+        <v>1393.464329137293</v>
       </c>
       <c r="W2" t="n">
-        <v>1217.07884972191</v>
+        <v>988.6088745483262</v>
       </c>
       <c r="X2" t="n">
-        <v>870.9261459254474</v>
+        <v>973.5068151680409</v>
       </c>
       <c r="Y2" t="n">
-        <v>866.6804262655048</v>
+        <v>969.2610955080984</v>
       </c>
     </row>
     <row r="3">
@@ -4406,25 +4406,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
         <v>1159.957753041174</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>756.2696148467799</v>
+        <v>718.5617128800624</v>
       </c>
       <c r="C4" t="n">
-        <v>583.7079033300048</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="D4" t="n">
-        <v>417.8299105315275</v>
+        <v>546.0000013632873</v>
       </c>
       <c r="E4" t="n">
-        <v>417.8299105315275</v>
+        <v>376.2419976140245</v>
       </c>
       <c r="F4" t="n">
-        <v>262.5057921365585</v>
+        <v>199.5349435757807</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I4" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="L4" t="n">
-        <v>813.4916901053949</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>1181.483761245743</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1181.483761245743</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1181.483761245743</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4515,25 +4515,25 @@
         <v>1675.765608785789</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="T4" t="n">
-        <v>1270.644793662241</v>
+        <v>1429.886162364244</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>1383.191756951529</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>1383.191756951529</v>
       </c>
       <c r="W4" t="n">
-        <v>983.6892855326716</v>
+        <v>1383.191756951529</v>
       </c>
       <c r="X4" t="n">
-        <v>983.6892855326716</v>
+        <v>1137.800002284941</v>
       </c>
       <c r="Y4" t="n">
-        <v>756.2696148467799</v>
+        <v>910.3803315990494</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>829.2100454836351</v>
+        <v>2075.156929400147</v>
       </c>
       <c r="C5" t="n">
-        <v>795.1079767074625</v>
+        <v>1749.382177224266</v>
       </c>
       <c r="D5" t="n">
-        <v>763.2385959223111</v>
+        <v>1313.47239239871</v>
       </c>
       <c r="E5" t="n">
-        <v>733.5042551210104</v>
+        <v>879.6976475570052</v>
       </c>
       <c r="F5" t="n">
-        <v>451.8302179662132</v>
+        <v>451.830217966213</v>
       </c>
       <c r="G5" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="H5" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="I5" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="J5" t="n">
-        <v>485.687074042395</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="K5" t="n">
-        <v>485.687074042395</v>
+        <v>674.5331706342535</v>
       </c>
       <c r="L5" t="n">
-        <v>485.687074042395</v>
+        <v>1298.63395467903</v>
       </c>
       <c r="M5" t="n">
-        <v>726.9189754257026</v>
+        <v>1298.63395467903</v>
       </c>
       <c r="N5" t="n">
-        <v>726.9189754257026</v>
+        <v>1298.63395467903</v>
       </c>
       <c r="O5" t="n">
-        <v>1351.019759470482</v>
+        <v>1922.734738723806</v>
       </c>
       <c r="P5" t="n">
-        <v>1975.120543515261</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="Q5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="R5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="S5" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="T5" t="n">
-        <v>2301.552102346894</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="U5" t="n">
-        <v>2042.329799663911</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="V5" t="n">
-        <v>1679.712849597737</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="W5" t="n">
-        <v>1274.857395008771</v>
+        <v>2520.804278925282</v>
       </c>
       <c r="X5" t="n">
-        <v>855.7149315880814</v>
+        <v>2505.702219544997</v>
       </c>
       <c r="Y5" t="n">
-        <v>851.4692119281389</v>
+        <v>2501.456499885054</v>
       </c>
     </row>
     <row r="6">
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>556.6041315807699</v>
+        <v>556.6041315807697</v>
       </c>
       <c r="C6" t="n">
-        <v>450.1476704174122</v>
+        <v>450.147670417412</v>
       </c>
       <c r="D6" t="n">
-        <v>355.0573815639655</v>
+        <v>355.0573815639652</v>
       </c>
       <c r="E6" t="n">
-        <v>260.9369668909192</v>
+        <v>260.9369668909189</v>
       </c>
       <c r="F6" t="n">
-        <v>177.5531285070808</v>
+        <v>177.5531285070805</v>
       </c>
       <c r="G6" t="n">
-        <v>92.16803877326464</v>
+        <v>92.16803877326441</v>
       </c>
       <c r="H6" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="I6" t="n">
-        <v>76.49605974993472</v>
+        <v>76.49605974993449</v>
       </c>
       <c r="J6" t="n">
-        <v>76.49605974993472</v>
+        <v>401.0543847161468</v>
       </c>
       <c r="K6" t="n">
-        <v>76.49605974993472</v>
+        <v>1025.155168760923</v>
       </c>
       <c r="L6" t="n">
-        <v>700.5968437947139</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="M6" t="n">
-        <v>1324.697627839493</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="N6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="O6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="P6" t="n">
-        <v>1596.499369973946</v>
+        <v>1055.760431341871</v>
       </c>
       <c r="Q6" t="n">
         <v>1596.499369973946</v>
@@ -4685,13 +4685,13 @@
         <v>1144.584001909238</v>
       </c>
       <c r="W6" t="n">
-        <v>959.2612476424324</v>
+        <v>959.2612476424322</v>
       </c>
       <c r="X6" t="n">
-        <v>804.3938118813123</v>
+        <v>804.3938118813121</v>
       </c>
       <c r="Y6" t="n">
-        <v>677.9080326605331</v>
+        <v>677.9080326605329</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1110.941586529293</v>
+        <v>593.035735694029</v>
       </c>
       <c r="C7" t="n">
-        <v>938.379875012518</v>
+        <v>420.4740241772539</v>
       </c>
       <c r="D7" t="n">
-        <v>791.0508428861062</v>
+        <v>254.5960313787766</v>
       </c>
       <c r="E7" t="n">
-        <v>621.2928391368434</v>
+        <v>84.83802762951385</v>
       </c>
       <c r="F7" t="n">
-        <v>444.5857850985996</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="G7" t="n">
-        <v>278.9945101244273</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="H7" t="n">
-        <v>139.0923358148018</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="I7" t="n">
-        <v>50.43238658947711</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="J7" t="n">
-        <v>137.012071754167</v>
+        <v>50.43238658947689</v>
       </c>
       <c r="K7" t="n">
-        <v>411.7705263253026</v>
+        <v>325.1908411606125</v>
       </c>
       <c r="L7" t="n">
-        <v>829.9804080932637</v>
+        <v>743.4007229285735</v>
       </c>
       <c r="M7" t="n">
-        <v>1289.464275274177</v>
+        <v>1202.884590109486</v>
       </c>
       <c r="N7" t="n">
-        <v>1731.723078431821</v>
+        <v>1645.143393267131</v>
       </c>
       <c r="O7" t="n">
-        <v>2005.919660639182</v>
+        <v>2064.812642492912</v>
       </c>
       <c r="P7" t="n">
-        <v>2353.426554609523</v>
+        <v>2412.319536463254</v>
       </c>
       <c r="Q7" t="n">
-        <v>2521.619329473855</v>
+        <v>2521.619329473845</v>
       </c>
       <c r="R7" t="n">
-        <v>2500.201508179227</v>
+        <v>2500.201508179216</v>
       </c>
       <c r="S7" t="n">
-        <v>2340.960139477224</v>
+        <v>2340.960139477213</v>
       </c>
       <c r="T7" t="n">
-        <v>2340.960139477224</v>
+        <v>2095.080693055668</v>
       </c>
       <c r="U7" t="n">
-        <v>2062.527138730329</v>
+        <v>1816.647692308773</v>
       </c>
       <c r="V7" t="n">
-        <v>1775.57163060076</v>
+        <v>1529.692184179204</v>
       </c>
       <c r="W7" t="n">
-        <v>1775.57163060076</v>
+        <v>1257.665779765495</v>
       </c>
       <c r="X7" t="n">
-        <v>1530.179875934172</v>
+        <v>1012.274025098908</v>
       </c>
       <c r="Y7" t="n">
-        <v>1302.76020524828</v>
+        <v>784.8543544130162</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1671.54282645597</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>1637.440757679797</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>1605.571376894645</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>1171.796632052941</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>743.9292024621484</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.5313710854123</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
         <v>53.40121652862856</v>
@@ -4804,28 +4804,28 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>488.6559039815464</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="M8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="N8" t="n">
-        <v>1149.495958523325</v>
+        <v>1375.081325612185</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>2035.921380153963</v>
       </c>
       <c r="P8" t="n">
-        <v>1954.407975719776</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="Q8" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R8" t="n">
         <v>2670.060826431428</v>
@@ -4834,22 +4834,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2480.622176595841</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2118.005226529668</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2117.190175981105</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>2102.08811660082</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1693.801992900473</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4883,7 +4883,7 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>397.8892067392439</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
         <v>1058.729261281022</v>
@@ -4986,22 +4986,22 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>2389.112579835562</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>2110.679579088667</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1823.724070959097</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1551.697666545389</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
         <v>1551.697666545389</v>
@@ -5038,49 +5038,49 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I11" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J11" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K11" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L11" t="n">
-        <v>1371.865819681875</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M11" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N11" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O11" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P11" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q11" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R11" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S11" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T11" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U11" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V11" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W11" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X11" t="n">
         <v>3363.485741837043</v>
@@ -5111,10 +5111,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G12" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H12" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I12" t="n">
         <v>128.3245134312372</v>
@@ -5123,10 +5123,10 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L12" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M12" t="n">
         <v>1107.588885023173</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C13" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D13" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E13" t="n">
-        <v>473.3149733731391</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F13" t="n">
-        <v>473.3149733731391</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G13" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H13" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I13" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J13" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354715</v>
       </c>
       <c r="K13" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066071</v>
       </c>
       <c r="L13" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745681</v>
       </c>
       <c r="M13" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955481</v>
       </c>
       <c r="N13" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113126</v>
       </c>
       <c r="O13" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.220781338907</v>
       </c>
       <c r="P13" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309249</v>
       </c>
       <c r="Q13" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173581</v>
       </c>
       <c r="R13" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173581</v>
       </c>
       <c r="S13" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T13" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U13" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V13" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W13" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X13" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y13" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="14">
@@ -5275,37 +5275,37 @@
         <v>102.6776296436396</v>
       </c>
       <c r="I14" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J14" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K14" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L14" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T14" t="n">
         <v>4809.322912595856</v>
@@ -5348,10 +5348,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G15" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H15" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I15" t="n">
         <v>128.3245134312372</v>
@@ -5360,10 +5360,10 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L15" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M15" t="n">
         <v>1107.588885023173</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3462.891420506061</v>
+        <v>1181.319000882659</v>
       </c>
       <c r="C16" t="n">
-        <v>3290.329708989286</v>
+        <v>1008.757289365884</v>
       </c>
       <c r="D16" t="n">
-        <v>3124.451716190809</v>
+        <v>842.8792965674063</v>
       </c>
       <c r="E16" t="n">
-        <v>2954.693712441546</v>
+        <v>673.1212928181435</v>
       </c>
       <c r="F16" t="n">
-        <v>2890.535802145304</v>
+        <v>496.4142387798997</v>
       </c>
       <c r="G16" t="n">
-        <v>2724.944527171132</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H16" t="n">
-        <v>2585.042352861507</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I16" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J16" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K16" t="n">
-        <v>2857.720543372007</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L16" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M16" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N16" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O16" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P16" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q16" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R16" t="n">
-        <v>5091.624192244353</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S16" t="n">
-        <v>4932.38282354235</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T16" t="n">
-        <v>4686.503377120805</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U16" t="n">
-        <v>4686.503377120805</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V16" t="n">
-        <v>4399.547868991236</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W16" t="n">
-        <v>4127.521464577528</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X16" t="n">
-        <v>3882.12970991094</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y16" t="n">
-        <v>3654.710039225049</v>
+        <v>1373.137619601646</v>
       </c>
     </row>
     <row r="17">
@@ -5491,55 +5491,55 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004241</v>
       </c>
       <c r="H17" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I17" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M17" t="n">
-        <v>2460.632577573633</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N17" t="n">
-        <v>3586.36356101008</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O17" t="n">
-        <v>4566.543227580387</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P17" t="n">
-        <v>4566.543227580387</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S17" t="n">
         <v>5029.390139722818</v>
@@ -5557,10 +5557,10 @@
         <v>3782.628205257733</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y17" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="18">
@@ -5585,37 +5585,37 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G18" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H18" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O18" t="n">
-        <v>945.7774352703902</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P18" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q18" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3398.73351020982</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C19" t="n">
-        <v>3226.171798693044</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D19" t="n">
-        <v>3060.293805894567</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E19" t="n">
-        <v>2890.535802145304</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F19" t="n">
-        <v>2890.535802145304</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G19" t="n">
-        <v>2724.944527171132</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H19" t="n">
-        <v>2585.042352861507</v>
+        <v>108.3119744314043</v>
       </c>
       <c r="I19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J19" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>2857.720543372007</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L19" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>4932.38282354235</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T19" t="n">
-        <v>4686.503377120805</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U19" t="n">
-        <v>4408.070376373911</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V19" t="n">
-        <v>4121.114868244342</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W19" t="n">
-        <v>3849.088463830633</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X19" t="n">
-        <v>3603.696709164046</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y19" t="n">
-        <v>3590.552128928807</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="20">
@@ -5752,25 +5752,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N20" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O20" t="n">
-        <v>4943.887948785925</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P20" t="n">
-        <v>4943.887948785925</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
         <v>4943.887948785925</v>
@@ -5779,22 +5779,22 @@
         <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136696</v>
@@ -5828,28 +5828,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
         <v>1648.327823655249</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5934,28 +5934,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R22" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N23" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1017.756527079655</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>845.1948155628801</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>679.3168227644028</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>509.55881901514</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>332.8517649768962</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>167.2604900027239</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
         <v>102.2608402707796</v>
@@ -6171,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1209.575145798642</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6226,28 +6226,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>952.7568773477155</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>780.1951658309405</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>614.3171730324632</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>444.5591692832005</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
         <v>267.852115244952</v>
@@ -6411,25 +6411,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S28" t="n">
-        <v>2700.6812811309</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T28" t="n">
-        <v>2454.801834709355</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U28" t="n">
-        <v>2176.36883396246</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V28" t="n">
-        <v>1889.41332583289</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W28" t="n">
-        <v>1617.386921419182</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X28" t="n">
-        <v>1371.995166752595</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.575496066703</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="29">
@@ -6463,28 +6463,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R29" t="n">
         <v>5113.04201353898</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>751.6989919312866</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.659051657336</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6630,43 +6630,43 @@
         <v>881.8088617745661</v>
       </c>
       <c r="M31" t="n">
-        <v>1341.292728955475</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N31" t="n">
-        <v>1783.551532113119</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O31" t="n">
-        <v>2203.2207813389</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309242</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173575</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2718.920450173575</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2718.920450173575</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2473.04100375203</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2194.608003005135</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>2029.315500142511</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1757.289095728803</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.897341062215</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.477670376323</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6700,28 +6700,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6776,31 +6776,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
         <v>1765.500601749588</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6885,25 +6885,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U34" t="n">
-        <v>2313.799635050031</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771616</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004237</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O35" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P35" t="n">
-        <v>4943.887948785924</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W35" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="36">
@@ -6992,10 +6992,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C36" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D36" t="n">
         <v>406.885835245268</v>
@@ -7007,49 +7007,49 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G36" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H36" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I36" t="n">
         <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>128.3245134312372</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>128.3245134312372</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>414.500552094942</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
         <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S36" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T36" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U36" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V36" t="n">
         <v>1196.412455590541</v>
@@ -7058,10 +7058,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X36" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y36" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1181.319000882661</v>
+        <v>811.754677688386</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716108</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674086</v>
+        <v>639.1929661716108</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>469.434962422348</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>292.727908384104</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>292.727908384104</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>152.8257340744784</v>
       </c>
       <c r="I37" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J37" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K37" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L37" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M37" t="n">
-        <v>1341.292728955479</v>
+        <v>1341.292728955474</v>
       </c>
       <c r="N37" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113119</v>
       </c>
       <c r="O37" t="n">
-        <v>2203.220781338905</v>
+        <v>2203.2207813389</v>
       </c>
       <c r="P37" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309241</v>
       </c>
       <c r="Q37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173574</v>
       </c>
       <c r="S37" t="n">
-        <v>2642.287896536276</v>
+        <v>2559.67908147157</v>
       </c>
       <c r="T37" t="n">
-        <v>2396.408450114731</v>
+        <v>2313.799635050026</v>
       </c>
       <c r="U37" t="n">
-        <v>2117.975449367836</v>
+        <v>2035.366634303131</v>
       </c>
       <c r="V37" t="n">
-        <v>2117.975449367836</v>
+        <v>1748.411126173561</v>
       </c>
       <c r="W37" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759853</v>
       </c>
       <c r="X37" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.992967093265</v>
       </c>
       <c r="Y37" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407373</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835215</v>
       </c>
       <c r="D38" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009659</v>
       </c>
       <c r="E38" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167954</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771618</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004255</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436417</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257735</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837046</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="39">
@@ -7229,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C39" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D39" t="n">
         <v>406.885835245268</v>
@@ -7244,10 +7244,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7256,37 +7256,37 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>452.8828383974496</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>1651.607672489949</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>1651.607672489949</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>1651.607672489949</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1651.607672489949</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
-        <v>1651.607672489949</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R39" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S39" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T39" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U39" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V39" t="n">
         <v>1196.412455590541</v>
@@ -7295,10 +7295,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X39" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y39" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3346.878440713112</v>
+        <v>952.7568773477115</v>
       </c>
       <c r="C40" t="n">
-        <v>3174.316729196337</v>
+        <v>780.1951658309363</v>
       </c>
       <c r="D40" t="n">
-        <v>3008.43873639786</v>
+        <v>614.3171730324589</v>
       </c>
       <c r="E40" t="n">
-        <v>2838.680732648597</v>
+        <v>444.5591692831961</v>
       </c>
       <c r="F40" t="n">
-        <v>2661.973678610354</v>
+        <v>267.8521152449521</v>
       </c>
       <c r="G40" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636181</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800871</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372006</v>
+        <v>463.5989800066048</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139967</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.41429232088</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478524</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704307</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674648</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.04201353898</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5094.802844496296</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5094.802844496296</v>
+        <v>2700.681281130896</v>
       </c>
       <c r="T40" t="n">
-        <v>4848.923398074751</v>
+        <v>2454.801834709351</v>
       </c>
       <c r="U40" t="n">
-        <v>4570.490397327857</v>
+        <v>2176.368833962456</v>
       </c>
       <c r="V40" t="n">
-        <v>4283.534889198288</v>
+        <v>1889.413325832887</v>
       </c>
       <c r="W40" t="n">
-        <v>4011.508484784579</v>
+        <v>1617.386921419178</v>
       </c>
       <c r="X40" t="n">
-        <v>3766.116730117991</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>3538.6970594321</v>
+        <v>1144.575496066699</v>
       </c>
     </row>
     <row r="41">
@@ -7390,7 +7390,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7399,64 +7399,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771598</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>3569.079287993933</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
-        <v>3569.079287993933</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U41" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V41" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136698</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C42" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D42" t="n">
         <v>406.885835245268</v>
@@ -7481,10 +7481,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
@@ -7514,16 +7514,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R42" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S42" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T42" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U42" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V42" t="n">
         <v>1196.412455590541</v>
@@ -7532,10 +7532,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X42" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y42" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.7568773477108</v>
+        <v>915.9519976190932</v>
       </c>
       <c r="C43" t="n">
-        <v>780.1951658309357</v>
+        <v>743.390286102318</v>
       </c>
       <c r="D43" t="n">
-        <v>614.3171730324584</v>
+        <v>577.5122933038406</v>
       </c>
       <c r="E43" t="n">
-        <v>444.5591692831957</v>
+        <v>407.7542895545777</v>
       </c>
       <c r="F43" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545777</v>
       </c>
       <c r="G43" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804053</v>
       </c>
       <c r="H43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066048</v>
       </c>
       <c r="L43" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M43" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N43" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O43" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P43" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q43" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S43" t="n">
-        <v>2700.681281130895</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T43" t="n">
-        <v>2454.80183470935</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2176.368833962455</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V43" t="n">
-        <v>1889.413325832886</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W43" t="n">
-        <v>1617.386921419177</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X43" t="n">
-        <v>1371.99516675259</v>
+        <v>1335.190287023972</v>
       </c>
       <c r="Y43" t="n">
-        <v>1144.575496066698</v>
+        <v>1107.77061633808</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C44" t="n">
         <v>2090.757574835212</v>
@@ -7636,64 +7636,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771598</v>
       </c>
       <c r="G44" t="n">
-        <v>391.8077842004233</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436398</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="L44" t="n">
-        <v>1371.865819681875</v>
+        <v>306.1208027766317</v>
       </c>
       <c r="M44" t="n">
-        <v>2528.913654892426</v>
+        <v>1463.168637987183</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993936</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827332</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785927</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538983</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.39013972282</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595859</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912875</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.483659846702</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="45">
@@ -7703,10 +7703,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>608.4325852620724</v>
+        <v>608.4325852620725</v>
       </c>
       <c r="C45" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987148</v>
       </c>
       <c r="D45" t="n">
         <v>406.885835245268</v>
@@ -7718,10 +7718,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7751,16 +7751,16 @@
         <v>1648.327823655249</v>
       </c>
       <c r="R45" t="n">
-        <v>1765.500601749588</v>
+        <v>1765.500601749589</v>
       </c>
       <c r="S45" t="n">
-        <v>1702.045164197971</v>
+        <v>1702.045164197972</v>
       </c>
       <c r="T45" t="n">
         <v>1571.866520528573</v>
       </c>
       <c r="U45" t="n">
-        <v>1395.529973528541</v>
+        <v>1395.529973528542</v>
       </c>
       <c r="V45" t="n">
         <v>1196.412455590541</v>
@@ -7769,10 +7769,10 @@
         <v>1011.089701323735</v>
       </c>
       <c r="X45" t="n">
-        <v>856.2222655626148</v>
+        <v>856.2222655626149</v>
       </c>
       <c r="Y45" t="n">
-        <v>729.7364863418355</v>
+        <v>729.7364863418356</v>
       </c>
     </row>
     <row r="46">
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883905</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>743.390286102318</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>577.5122933038406</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>407.7542895545777</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545777</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057297</v>
+        <v>242.1630145804053</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K46" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O46" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q46" t="n">
         <v>2718.920450173579</v>
@@ -7833,25 +7833,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471576</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T46" t="n">
-        <v>2313.799635050031</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U46" t="n">
-        <v>2035.366634303136</v>
+        <v>2035.366634303135</v>
       </c>
       <c r="V46" t="n">
         <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1476.384721759858</v>
+        <v>1476.384721759857</v>
       </c>
       <c r="X46" t="n">
-        <v>1230.99296709327</v>
+        <v>1230.992967093269</v>
       </c>
       <c r="Y46" t="n">
-        <v>1181.319000882661</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,10 +8072,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684611</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684611</v>
       </c>
       <c r="M5" t="n">
-        <v>243.6685872558663</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684639</v>
+        <v>630.404832368461</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684638</v>
+        <v>604.9339300505439</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -8294,19 +8294,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684611</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684639</v>
+        <v>30.91440664742163</v>
       </c>
       <c r="M6" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>274.5472142772255</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8388,13 +8388,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>276.9662446538994</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>110.4038313238289</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,10 +8531,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8695,13 +8695,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>92.22506899525797</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8771,13 +8771,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8935,7 +8935,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>583.0591140826373</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9008,13 +9008,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9172,22 +9172,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>13.84524407969548</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>801.4298400828739</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,19 +9409,19 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>655.9980117748592</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
         <v>170.8626916697543</v>
@@ -9476,22 +9476,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,22 +9713,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,13 +10187,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10202,19 +10202,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,22 +10424,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10448,10 +10448,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>508.6956131767483</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>170.8626916697543</v>
@@ -10664,19 +10664,19 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>289.066705720914</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,7 +10685,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,13 +10904,13 @@
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>115.0433628885244</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11068,13 +11068,13 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1133.488385918382</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11141,7 +11141,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -11296,19 +11296,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463152</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -11378,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>22.86827275269542</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627235</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>111.4236523045819</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23709,10 +23709,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>102.9863699957324</v>
       </c>
     </row>
     <row r="17">
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.78272691405303</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>212.1323395461461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24141,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>74.15349933190441</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
         <v>87.77334973307141</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24651,7 +24651,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>139.5921776627307</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24855,7 +24855,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24888,7 +24888,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>120.4463752142759</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>90.22000922290115</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704926</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>37.71410486740975</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>21.20364308168194</v>
       </c>
       <c r="S37" t="n">
-        <v>81.78272691405301</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>138.5031525665293</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973307151</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>3.14686572942388</v>
+        <v>21.20364308168194</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627277</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978614</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>87.77334973307151</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>124.3589898130769</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>103.1553467313956</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307151</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>21.20364308168194</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>175.9682474305294</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>474706.6928761695</v>
+        <v>474706.6928761696</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>474706.6928761696</v>
+        <v>474706.6928761695</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>474706.6928761694</v>
+        <v>474706.6928761695</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>474706.6928761695</v>
+        <v>474706.6928761694</v>
       </c>
     </row>
     <row r="14">
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>482532.5879013678</v>
+      </c>
+      <c r="C2" t="n">
         <v>482532.5879013676</v>
       </c>
-      <c r="C2" t="n">
-        <v>482532.5879013677</v>
-      </c>
       <c r="D2" t="n">
-        <v>482532.5879013677</v>
+        <v>482532.5879013676</v>
       </c>
       <c r="E2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="F2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="G2" t="n">
-        <v>474171.825723617</v>
+        <v>474171.8257236171</v>
       </c>
       <c r="H2" t="n">
         <v>474171.825723617</v>
@@ -26337,25 +26337,25 @@
         <v>474171.825723617</v>
       </c>
       <c r="J2" t="n">
-        <v>474171.8257236169</v>
+        <v>474171.825723617</v>
       </c>
       <c r="K2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="L2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.825723617</v>
       </c>
       <c r="M2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.825723617</v>
       </c>
       <c r="N2" t="n">
         <v>474171.825723617</v>
       </c>
       <c r="O2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.825723617</v>
       </c>
       <c r="P2" t="n">
-        <v>474171.8257236171</v>
+        <v>474171.8257236168</v>
       </c>
     </row>
     <row r="3">
@@ -26368,10 +26368,10 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>66587.76789501628</v>
+        <v>66587.76789501538</v>
       </c>
       <c r="D3" t="n">
-        <v>11527.59554998266</v>
+        <v>11527.59554998353</v>
       </c>
       <c r="E3" t="n">
         <v>182355.1092210498</v>
@@ -26392,13 +26392,13 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>53045.8546387726</v>
+        <v>53045.85463877189</v>
       </c>
       <c r="L3" t="n">
-        <v>9392.301726622227</v>
+        <v>9392.301726622933</v>
       </c>
       <c r="M3" t="n">
-        <v>152200.1709379876</v>
+        <v>152200.1709379878</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>181432.3864604621</v>
       </c>
       <c r="C4" t="n">
-        <v>138489.2977955546</v>
+        <v>138489.2977955552</v>
       </c>
       <c r="D4" t="n">
         <v>130757.3002320199</v>
       </c>
       <c r="E4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020264</v>
       </c>
       <c r="F4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020264</v>
       </c>
       <c r="G4" t="n">
         <v>27684.07875020263</v>
       </c>
       <c r="H4" t="n">
-        <v>27684.07875020265</v>
+        <v>27684.07875020264</v>
       </c>
       <c r="I4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="J4" t="n">
-        <v>27684.07875020261</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="K4" t="n">
-        <v>27684.07875020261</v>
+        <v>27684.07875020268</v>
       </c>
       <c r="L4" t="n">
         <v>27684.07875020268</v>
       </c>
       <c r="M4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020253</v>
       </c>
       <c r="N4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.0787502025</v>
       </c>
       <c r="O4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020253</v>
       </c>
       <c r="P4" t="n">
-        <v>27684.07875020268</v>
+        <v>27684.07875020252</v>
       </c>
     </row>
     <row r="5">
@@ -26472,19 +26472,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>71956.21380800259</v>
+        <v>71956.21380800245</v>
       </c>
       <c r="D5" t="n">
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26502,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="O5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
       <c r="P5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579253</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>99484.11264397329</v>
+        <v>99484.11264397338</v>
       </c>
       <c r="C6" t="n">
-        <v>205499.3084027942</v>
+        <v>205499.3084027946</v>
       </c>
       <c r="D6" t="n">
-        <v>266035.1675576075</v>
+        <v>266035.1675576065</v>
       </c>
       <c r="E6" t="n">
-        <v>186414.3991465721</v>
+        <v>186391.1748071895</v>
       </c>
       <c r="F6" t="n">
-        <v>368769.5083676219</v>
+        <v>368746.2840282393</v>
       </c>
       <c r="G6" t="n">
-        <v>368769.5083676219</v>
+        <v>368746.2840282393</v>
       </c>
       <c r="H6" t="n">
-        <v>368769.5083676219</v>
+        <v>368746.2840282392</v>
       </c>
       <c r="I6" t="n">
-        <v>368769.5083676219</v>
+        <v>368746.2840282392</v>
       </c>
       <c r="J6" t="n">
-        <v>257755.0430226316</v>
+        <v>257731.818683249</v>
       </c>
       <c r="K6" t="n">
-        <v>315723.6537288493</v>
+        <v>315700.4293894673</v>
       </c>
       <c r="L6" t="n">
-        <v>359377.2066409997</v>
+        <v>359353.9823016163</v>
       </c>
       <c r="M6" t="n">
-        <v>216569.3374296343</v>
+        <v>216546.1130902515</v>
       </c>
       <c r="N6" t="n">
-        <v>368769.5083676218</v>
+        <v>368746.2840282393</v>
       </c>
       <c r="O6" t="n">
-        <v>368769.5083676219</v>
+        <v>368746.2840282393</v>
       </c>
       <c r="P6" t="n">
-        <v>368769.5083676219</v>
+        <v>368746.2840282391</v>
       </c>
     </row>
   </sheetData>
@@ -26792,19 +26792,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>630.4048323684639</v>
+        <v>630.4048323684611</v>
       </c>
       <c r="D4" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="F4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="G4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="H4" t="n">
         <v>1278.260503384745</v>
@@ -26822,16 +26822,16 @@
         <v>1278.260503384745</v>
       </c>
       <c r="M4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27014,13 +27014,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>206.1089748483596</v>
+        <v>206.1089748483568</v>
       </c>
       <c r="D4" t="n">
-        <v>37.11037423939305</v>
+        <v>37.11037423939584</v>
       </c>
       <c r="E4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483596</v>
+        <v>206.1089748483568</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939305</v>
+        <v>37.11037423939584</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768882</v>
+        <v>610.7452967768891</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27260,13 +27260,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>206.1089748483596</v>
+        <v>206.1089748483568</v>
       </c>
       <c r="L4" t="n">
-        <v>37.11037423939305</v>
+        <v>37.11037423939584</v>
       </c>
       <c r="M4" t="n">
-        <v>610.7452967768884</v>
+        <v>610.7452967768886</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>397.6897898710144</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
@@ -27393,13 +27393,13 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>72.25986202798413</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>21.16910628684204</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>229.4212093808372</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27615,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>111.2440434342889</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>144.7314585116352</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y5" t="n">
         <v>400</v>
@@ -27779,22 +27779,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>18.36347106534487</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>140.8783988682247</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27827,7 +27827,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27836,7 +27836,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27861,16 +27861,16 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
         <v>0.4126214791313976</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>151.901171396924</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28058,13 +28058,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>144.1344859240864</v>
+        <v>208.2197249473433</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-3.453686889477613e-14</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-1.790567694115452e-12</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28271,7 +28271,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2.019357180407406e-12</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -28326,13 +28326,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-3.453686889477613e-14</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>-3.453686889477613e-14</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>-3.453686889477613e-14</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -28344,7 +28344,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-3.453686889477613e-14</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28380,7 +28380,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>-1.790567694115452e-12</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -28499,7 +28499,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2.362999025910428e-12</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-8.93881736118702e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-4.583541945526324e-12</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>-2.009226118815377e-12</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30273,25 +30273,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="39">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30516,19 +30516,19 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-2.046363078989089e-12</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>1.168233268542979e-12</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-1.662759128990437e-12</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,19 +30747,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>-1.040531656192129e-13</v>
       </c>
     </row>
   </sheetData>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="K2" t="n">
-        <v>424.2958575201043</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="M2" t="n">
-        <v>407.1525905495951</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34792,10 +34792,10 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>424.2958575201044</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>407.5401155184051</v>
       </c>
       <c r="M4" t="n">
-        <v>371.7091627680287</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>630.4048323684611</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>630.4048323684611</v>
       </c>
       <c r="M5" t="n">
-        <v>243.6685872558663</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>630.4048323684639</v>
+        <v>630.404832368461</v>
       </c>
       <c r="P5" t="n">
-        <v>630.4048323684638</v>
+        <v>604.9339300505439</v>
       </c>
       <c r="Q5" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35011,22 +35011,22 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>630.4048323684611</v>
       </c>
       <c r="L6" t="n">
-        <v>630.4048323684639</v>
+        <v>30.91440664742163</v>
       </c>
       <c r="M6" t="n">
-        <v>630.4048323684638</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>274.5472142772255</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35035,10 +35035,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
-        <v>118.3563415094343</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,13 +35093,13 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908068</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>422.4342240080416</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M7" t="n">
         <v>464.1251183645586</v>
@@ -35108,13 +35108,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>276.9662446538994</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>110.4038313238289</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>667.5152066078568</v>
       </c>
       <c r="M8" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>145.5272350047205</v>
+        <v>667.5152066078567</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>640.5448952297625</v>
       </c>
       <c r="Q8" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>321.6407242930886</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>667.515206607857</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
-        <v>92.22506899525797</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35488,16 +35488,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908269</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
@@ -35582,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -35655,7 +35655,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>583.0591140826373</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35725,16 +35725,16 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -35804,10 +35804,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
         <v>422.4342240080414</v>
@@ -35819,13 +35819,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q16" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>13.84524407969548</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>801.4298400828739</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>852.0369646460714</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,13 +35980,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
         <v>422.4342240080414</v>
@@ -36056,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>655.9980117748592</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
         <v>170.862691669754</v>
@@ -36196,22 +36196,22 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>315.3936483072347</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,22 +36433,22 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -36457,10 +36457,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,22 +36670,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -36922,19 +36922,19 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>655.9981329904112</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36998,7 +36998,7 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>464.1251183645541</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N31" t="n">
         <v>446.7260637956006</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,22 +37144,22 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>433.7499898166688</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37168,10 +37168,10 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>508.6956131767483</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>170.862691669754</v>
@@ -37384,19 +37384,19 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>289.066705720914</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,7 +37405,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
         <v>118.3563415094341</v>
@@ -37463,25 +37463,25 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645541</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P37" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q37" t="n">
         <v>169.8916917821539</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,16 +37621,16 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -37642,10 +37642,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>115.0433628885244</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908054</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080414</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P40" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1133.488385918382</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>143.4079146352469</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37858,10 +37858,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -37937,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908054</v>
       </c>
       <c r="K43" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37952,13 +37952,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P43" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821548</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,19 +38016,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>205.9191540463152</v>
       </c>
       <c r="M44" t="n">
         <v>1168.735187081365</v>
       </c>
       <c r="N44" t="n">
-        <v>60.59188538505123</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38095,10 +38095,10 @@
         <v>26.3269425863208</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158824</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38174,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38189,10 +38189,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P46" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165066</v>
       </c>
       <c r="Q46" t="n">
         <v>169.8916917821539</v>
